--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,16 +1970,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,16 +2018,16 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,16 +5078,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -6920,7 +6920,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,16 +5078,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,16 +5078,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,16 +5078,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,16 +5078,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6440,12 +6440,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Mineria Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>547</v>
+        <v>98000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estudio Geologico de Recursos</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Industrial Romeral S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>547</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>29/10/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Estudio Geologico de Recursos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Exploracion Minera Escalones III</t>
+          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/04/2021</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Exploracion Minera Escalones III</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>07/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>30</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,40 +760,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extracción de Yeso, Yacimiento Rubí</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14/10/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/08/2019</t>
+          <t>14/10/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
+          <t>Extracción de Yeso, Yacimiento Rubí</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>11000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>30/08/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
+          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/02/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Maipo</t>
+          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>Extracción de Áridos Río Maipo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>85000</v>
+        <v>23</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1648</v>
+        <v>85000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mejoramiento Parque Likandes</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inversiones Solcorfa RSE Limitada</t>
+          <t>Sociedad Industrial Romeral S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7000</v>
+        <v>1648</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Exploración Minera Escalones II</t>
+          <t>Mejoramiento Parque Likandes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Inversiones Solcorfa RSE Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/09/2013</t>
+          <t>09/06/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación Exploración Minera Escalones II</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/09/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,40 +1480,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Central El Canelo San José .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Central El Canelo San José</t>
+          <t>Central El Canelo San José .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Central El Canelo San José</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1300</v>
+        <v>50000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>05/06/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>95</v>
+        <v>800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,16 +2018,16 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8386</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>8386</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Minera Condor S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
+          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>Minera Condor S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>120</v>
+        <v>2200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Exploración Minera Los Piches</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Exploración Minera Los Piches</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Refugio Río Olivares del Sendero de Chile</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fundación Sendero de Chile</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Refugio Río Olivares del Sendero de Chile</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Fundación Sendero de Chile</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/10/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>29/10/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
+          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1750</v>
+        <v>30</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Emilio Moreno Hozven</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>490</v>
+        <v>900</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Emilio Moreno Hozven</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>23/06/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8386</v>
+        <v>350</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>120</v>
+        <v>8386</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,10 +3160,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>RM</t>
@@ -3171,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>23/12/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3204,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -3215,15 +3219,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3233,7 +3237,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3248,40 +3252,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>10/09/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,17 +3319,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3359,15 +3359,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3402,30 +3402,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1222</v>
+        <v>22</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3455,15 +3455,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>11/03/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hierro Ecológico (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3551,25 +3551,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cesar Chateau Moya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Hierro Ecológico (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3594,30 +3594,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Cesar Chateau Moya</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3647,25 +3647,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3695,25 +3695,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3743,25 +3743,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3791,15 +3791,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3882,16 +3882,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,25 +3935,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3991,17 +3991,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4026,30 +4026,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Exploración Minera Quempo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4074,20 +4074,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Exploración Minera Quempo (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4122,30 +4122,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4175,15 +4175,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Exploración Minera Escalones II (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4218,30 +4218,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Exploración Minera Escalones II (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4266,20 +4266,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4319,25 +4319,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4367,25 +4367,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,26 +4400,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ALTO MAIPO SPA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>700000</v>
+        <v>500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4429,7 +4433,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4444,14 +4448,10 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>RM</t>
@@ -4459,15 +4459,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>ALTO MAIPO SPA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>700000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>22/05/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4507,15 +4507,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17380</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>25/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
+          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4555,15 +4555,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>17380</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>25/02/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4611,17 +4611,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4651,15 +4651,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>14/11/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4747,25 +4747,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4795,25 +4795,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4838,20 +4838,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4895,11 +4895,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>30/08/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4934,30 +4934,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4995,17 +4995,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5035,15 +5035,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5083,25 +5083,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SANTUARIO RIO COLORADO (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5179,25 +5179,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>C-ELEVEN</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9101</v>
+        <v>37000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alto Maipo</t>
+          <t>SANTUARIO RIO COLORADO (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5227,25 +5227,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>C-ELEVEN</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>600000</v>
+        <v>9101</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>07/06/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,40 +5260,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Alto Maipo</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>600000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5323,25 +5323,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5371,15 +5371,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5414,16 +5414,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5462,30 +5462,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,17 +5523,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5571,17 +5571,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5611,15 +5611,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5659,25 +5659,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5702,30 +5702,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5750,30 +5750,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>31/10/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5803,15 +5803,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,17 +5859,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5894,20 +5894,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>165</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5942,30 +5942,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5990,20 +5990,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6038,30 +6038,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6091,15 +6091,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6139,11 +6139,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6187,11 +6187,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Exploración Cerro Blanco (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6230,20 +6230,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Empresa Minera de Mantos Blancos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>29/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Exploración Picos Bayos (e-seia)</t>
+          <t>Exploración Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Empresa Minera de Mantos Blancos S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Exploación Minera Escalones (e-seia)</t>
+          <t>Exploración Picos Bayos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,15 +6331,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Minera Aurex Chile Ltda.</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/07/2005</t>
+          <t>29/07/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Exploación Minera Escalones (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6379,15 +6379,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Minera Aurex Chile Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>26/07/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,17 +6435,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Exploración Minera Tortolitas (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Ojos del Salado</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>09/12/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Exploración Minera Tortolitas (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía Contractual Minera Ojos del Salado</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/12/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,25 +6619,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/06/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
+          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,25 +6667,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2400</v>
+        <v>71</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>13/06/2003</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
+          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,15 +6715,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>71</v>
+        <v>2400</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>04/01/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,17 +6771,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>19/12/2002</t>
+          <t>04/01/2003</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Hogar de Menores La Esquina</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>19/12/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,12 +6844,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mina Reserva</t>
+          <t>Hogar de Menores La Esquina</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Compañía Minera Lo Valdés Ltda.</t>
+          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mina Porfín</t>
+          <t>Mina Reserva</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>YESOTEC S.A.</t>
+          <t>Compañía Minera Lo Valdés Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Mina Porfín</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6950,30 +6950,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>YESOTEC S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1230</v>
+        <v>15000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,30 +6988,30 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,17 +7059,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,12 +7084,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chancado y Transporte de Mineral de Caliza</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7099,25 +7099,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Gasoducto Gas Andes Extensión VI Región</t>
+          <t>Chancado y Transporte de Mineral de Caliza</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7142,20 +7142,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,40 +7180,40 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Minera de Caliza Cristo Rey</t>
+          <t>Gasoducto Gas Andes Extensión VI Región</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Minera Cristo Rey Ltda.</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
+          <t>Minera de Caliza Cristo Rey</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7243,25 +7243,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Minera Cristo Rey Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>9200</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>20/07/2000</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
+          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7295,11 +7295,11 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>480</v>
+        <v>9200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Proyecto Minero La Perla</t>
+          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,15 +7339,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>08/07/1997</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,43 +7372,91 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>Proyecto Minero La Perla</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Knauf de Chile Limitada</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>08/07/1997</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>Proyecto Minero Almira</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>Fletcher Challenge Chile Industrial Ltda.</t>
         </is>
       </c>
-      <c r="F147" t="n">
+      <c r="F148" t="n">
         <v>100000</v>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>30/08/1996</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>San José de Maipo</t>
         </is>

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,16 +2018,16 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,16 +2066,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,16 +5174,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,16 +2018,16 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,16 +2066,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,16 +5126,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,16 +5174,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
+          <t>Estudio Geo Científico Norte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>98000</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>26/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>547</v>
+        <v>98000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estudio Geologico de Recursos</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Industrial Romeral S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>547</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>29/10/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Estudio Geologico de Recursos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Exploracion Minera Escalones III</t>
+          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/04/2021</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Exploracion Minera Escalones III</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>07/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>30</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,40 +808,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extracción de Yeso, Yacimiento Rubí</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14/10/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/08/2019</t>
+          <t>14/10/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
+          <t>Extracción de Yeso, Yacimiento Rubí</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>11000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>30/08/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
+          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/02/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Maipo</t>
+          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>Extracción de Áridos Río Maipo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>85000</v>
+        <v>23</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1648</v>
+        <v>85000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mejoramiento Parque Likandes</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inversiones Solcorfa RSE Limitada</t>
+          <t>Sociedad Industrial Romeral S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7000</v>
+        <v>1648</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Exploración Minera Escalones II</t>
+          <t>Mejoramiento Parque Likandes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Inversiones Solcorfa RSE Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/09/2013</t>
+          <t>09/06/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación Exploración Minera Escalones II</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/09/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,40 +1528,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Central El Canelo San José .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Central El Canelo San José</t>
+          <t>Central El Canelo San José .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Central El Canelo San José</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1300</v>
+        <v>50000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>05/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>95</v>
+        <v>800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,16 +2066,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8386</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>8386</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Minera Condor S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
+          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>Minera Condor S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>120</v>
+        <v>2200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Exploración Minera Los Piches</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Exploración Minera Los Piches</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Refugio Río Olivares del Sendero de Chile</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fundación Sendero de Chile</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Refugio Río Olivares del Sendero de Chile</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Fundación Sendero de Chile</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/10/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>29/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
+          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1750</v>
+        <v>30</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Emilio Moreno Hozven</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>490</v>
+        <v>900</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Emilio Moreno Hozven</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>23/06/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8386</v>
+        <v>350</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>120</v>
+        <v>8386</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,10 +3208,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>RM</t>
@@ -3219,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>23/12/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3252,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -3263,15 +3267,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3281,7 +3285,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3296,40 +3300,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>10/09/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3407,15 +3407,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3450,30 +3450,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1222</v>
+        <v>22</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3503,15 +3503,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>11/03/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,17 +3559,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hierro Ecológico (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3599,25 +3599,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cesar Chateau Moya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Hierro Ecológico (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3642,30 +3642,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Cesar Chateau Moya</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3695,25 +3695,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3743,25 +3743,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3791,25 +3791,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3839,15 +3839,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3930,16 +3930,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,25 +3983,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4039,17 +4039,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4074,30 +4074,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Exploración Minera Quempo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4122,20 +4122,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Exploración Minera Quempo (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4170,30 +4170,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4223,15 +4223,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Exploración Minera Escalones II (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Exploración Minera Escalones II (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4314,20 +4314,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4367,25 +4367,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4415,25 +4415,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,26 +4448,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ALTO MAIPO SPA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>700000</v>
+        <v>500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>22/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4477,7 +4481,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4492,14 +4496,10 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>RM</t>
@@ -4507,15 +4507,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>ALTO MAIPO SPA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>700000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>22/05/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4555,15 +4555,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17380</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>25/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
+          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4603,15 +4603,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>17380</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>25/02/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>14/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4699,15 +4699,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>14/11/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4795,25 +4795,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4843,25 +4843,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4886,20 +4886,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4943,11 +4943,11 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>30/08/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4982,30 +4982,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5043,17 +5043,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5083,15 +5083,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5131,25 +5131,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,16 +5174,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SANTUARIO RIO COLORADO (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5227,25 +5227,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>C-ELEVEN</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>9101</v>
+        <v>37000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,12 +5260,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alto Maipo</t>
+          <t>SANTUARIO RIO COLORADO (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5275,25 +5275,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>C-ELEVEN</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>600000</v>
+        <v>9101</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>07/06/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,40 +5308,40 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Alto Maipo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>600000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5371,25 +5371,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5419,15 +5419,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5462,16 +5462,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5510,30 +5510,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,17 +5571,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5619,17 +5619,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5659,15 +5659,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5707,25 +5707,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5750,30 +5750,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5798,30 +5798,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>31/10/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5851,15 +5851,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,17 +5907,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5942,20 +5942,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>165</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5990,30 +5990,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6038,20 +6038,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6086,30 +6086,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6139,15 +6139,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6187,11 +6187,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6235,11 +6235,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Exploración Cerro Blanco (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6278,20 +6278,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Empresa Minera de Mantos Blancos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>29/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Exploración Picos Bayos (e-seia)</t>
+          <t>Exploración Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Empresa Minera de Mantos Blancos S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Exploación Minera Escalones (e-seia)</t>
+          <t>Exploración Picos Bayos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6379,15 +6379,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Minera Aurex Chile Ltda.</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>26/07/2005</t>
+          <t>29/07/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Exploación Minera Escalones (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6427,15 +6427,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Minera Aurex Chile Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>26/07/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,17 +6483,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Exploración Minera Tortolitas (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Ojos del Salado</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09/12/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Exploración Minera Tortolitas (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía Contractual Minera Ojos del Salado</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/12/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,25 +6667,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13/06/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
+          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,25 +6715,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2400</v>
+        <v>71</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>13/06/2003</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
+          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,15 +6763,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>71</v>
+        <v>2400</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>04/01/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,17 +6819,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>19/12/2002</t>
+          <t>04/01/2003</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hogar de Menores La Esquina</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>19/12/2002</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,12 +6892,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mina Reserva</t>
+          <t>Hogar de Menores La Esquina</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Compañía Minera Lo Valdés Ltda.</t>
+          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mina Porfín</t>
+          <t>Mina Reserva</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6955,25 +6955,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>YESOTEC S.A.</t>
+          <t>Compañía Minera Lo Valdés Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Mina Porfín</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6998,30 +6998,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>YESOTEC S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1230</v>
+        <v>15000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,30 +7036,30 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,17 +7107,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,12 +7132,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chancado y Transporte de Mineral de Caliza</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -7147,25 +7147,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Gasoducto Gas Andes Extensión VI Región</t>
+          <t>Chancado y Transporte de Mineral de Caliza</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7190,20 +7190,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,40 +7228,40 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Minera de Caliza Cristo Rey</t>
+          <t>Gasoducto Gas Andes Extensión VI Región</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Minera Cristo Rey Ltda.</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
+          <t>Minera de Caliza Cristo Rey</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Minera Cristo Rey Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>9200</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>20/07/2000</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,12 +7324,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
+          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7343,11 +7343,11 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>480</v>
+        <v>9200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto Minero La Perla</t>
+          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,15 +7387,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>08/07/1997</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,43 +7420,91 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>Proyecto Minero La Perla</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Knauf de Chile Limitada</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>08/07/1997</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>Proyecto Minero Almira</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>Fletcher Challenge Chile Industrial Ltda.</t>
         </is>
       </c>
-      <c r="F148" t="n">
+      <c r="F149" t="n">
         <v>100000</v>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>30/08/1996</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>San José de Maipo</t>
         </is>

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/07/2022</t>
+          <t>02/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,16 +2066,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,16 +5174,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,16 +5222,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,16 +2066,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,16 +5174,16 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,16 +5222,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Estudio Geo Científico Norte</t>
+          <t>Planta Paneles de Yeso y Ampliación Cantera Rubí</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3000</v>
+        <v>98000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/08/2022</t>
+          <t>05/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156632310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
+          <t>Estudio Geo Científico Norte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>98000</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>02/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>547</v>
+        <v>98000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Estudio Geologico de Recursos</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Industrial Romeral S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>547</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>29/10/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Estudio Geologico de Recursos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Exploracion Minera Escalones III</t>
+          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/04/2021</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Exploracion Minera Escalones III</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>07/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>30</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,40 +856,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extracción de Yeso, Yacimiento Rubí</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14/10/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/08/2019</t>
+          <t>14/10/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
+          <t>Extracción de Yeso, Yacimiento Rubí</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>11000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>30/08/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
+          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/02/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Maipo</t>
+          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>Extracción de Áridos Río Maipo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>85000</v>
+        <v>23</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1648</v>
+        <v>85000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mejoramiento Parque Likandes</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inversiones Solcorfa RSE Limitada</t>
+          <t>Sociedad Industrial Romeral S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7000</v>
+        <v>1648</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Exploración Minera Escalones II</t>
+          <t>Mejoramiento Parque Likandes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Inversiones Solcorfa RSE Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/09/2013</t>
+          <t>09/06/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación Exploración Minera Escalones II</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/09/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,40 +1576,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Central El Canelo San José .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Central El Canelo San José</t>
+          <t>Central El Canelo San José .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Central El Canelo San José</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1300</v>
+        <v>50000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>05/06/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>8386</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>8386</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Minera Condor S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
+          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>Minera Condor S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>120</v>
+        <v>2200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Exploración Minera Los Piches</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Exploración Minera Los Piches</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Refugio Río Olivares del Sendero de Chile</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fundación Sendero de Chile</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Refugio Río Olivares del Sendero de Chile</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Fundación Sendero de Chile</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/10/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>29/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
+          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1750</v>
+        <v>30</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Emilio Moreno Hozven</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>490</v>
+        <v>900</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>23/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Emilio Moreno Hozven</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>23/06/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8386</v>
+        <v>350</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>120</v>
+        <v>8386</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,10 +3256,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>RM</t>
@@ -3267,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>23/12/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3300,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3311,15 +3315,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3329,7 +3333,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3344,40 +3348,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>10/09/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,17 +3415,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3455,15 +3455,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3498,30 +3498,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1222</v>
+        <v>22</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3551,15 +3551,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>11/03/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,17 +3607,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hierro Ecológico (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3647,25 +3647,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cesar Chateau Moya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Hierro Ecológico (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3690,30 +3690,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Cesar Chateau Moya</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3743,25 +3743,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3791,25 +3791,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3839,25 +3839,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,15 +3887,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3978,16 +3978,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4031,25 +4031,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4087,17 +4087,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4122,30 +4122,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Exploración Minera Quempo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4170,20 +4170,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Exploración Minera Quempo (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4218,30 +4218,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4271,15 +4271,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Exploración Minera Escalones II (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4314,30 +4314,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Exploración Minera Escalones II (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4362,20 +4362,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4415,25 +4415,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4463,25 +4463,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,26 +4496,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ALTO MAIPO SPA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>700000</v>
+        <v>500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>22/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4525,7 +4529,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4540,14 +4544,10 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>RM</t>
@@ -4555,15 +4555,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>ALTO MAIPO SPA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>700000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>22/05/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4603,15 +4603,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>17380</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>25/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
+          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4651,15 +4651,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>17380</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>25/02/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4707,17 +4707,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4747,15 +4747,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>14/11/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4843,25 +4843,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4891,25 +4891,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4934,20 +4934,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4991,11 +4991,11 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>30/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5030,30 +5030,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5091,17 +5091,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5131,15 +5131,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,30 +5174,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>37000</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SANTUARIO RIO COLORADO (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5275,25 +5275,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>C-ELEVEN</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>9101</v>
+        <v>37000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,12 +5308,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alto Maipo</t>
+          <t>SANTUARIO RIO COLORADO (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5323,25 +5323,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>C-ELEVEN</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>600000</v>
+        <v>9101</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>07/06/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,40 +5356,40 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Alto Maipo</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>600000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5419,25 +5419,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5467,15 +5467,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5510,16 +5510,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5558,30 +5558,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,17 +5619,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5667,17 +5667,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5707,15 +5707,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5755,25 +5755,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5798,30 +5798,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5846,30 +5846,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>31/10/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5899,15 +5899,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,17 +5955,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5990,20 +5990,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>165</v>
+        <v>500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6038,30 +6038,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6086,20 +6086,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6134,30 +6134,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6187,15 +6187,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6235,11 +6235,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6283,11 +6283,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Exploración Cerro Blanco (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6326,20 +6326,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Empresa Minera de Mantos Blancos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Exploración Picos Bayos (e-seia)</t>
+          <t>Exploración Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Empresa Minera de Mantos Blancos S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Exploación Minera Escalones (e-seia)</t>
+          <t>Exploración Picos Bayos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6427,15 +6427,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Minera Aurex Chile Ltda.</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>26/07/2005</t>
+          <t>29/07/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Exploación Minera Escalones (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6475,15 +6475,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Minera Aurex Chile Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>26/07/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Exploración Minera Tortolitas (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Ojos del Salado</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>09/12/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Exploración Minera Tortolitas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía Contractual Minera Ojos del Salado</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/12/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,25 +6715,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>13/06/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
+          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,25 +6763,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2400</v>
+        <v>71</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>13/06/2003</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
+          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,15 +6811,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>71</v>
+        <v>2400</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>04/01/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,17 +6867,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>19/12/2002</t>
+          <t>04/01/2003</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hogar de Menores La Esquina</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>19/12/2002</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,12 +6940,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mina Reserva</t>
+          <t>Hogar de Menores La Esquina</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6955,25 +6955,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compañía Minera Lo Valdés Ltda.</t>
+          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mina Porfín</t>
+          <t>Mina Reserva</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7003,25 +7003,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>YESOTEC S.A.</t>
+          <t>Compañía Minera Lo Valdés Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Mina Porfín</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7046,30 +7046,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>YESOTEC S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1230</v>
+        <v>15000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,30 +7084,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,17 +7155,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,12 +7180,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chancado y Transporte de Mineral de Caliza</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -7195,25 +7195,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Gasoducto Gas Andes Extensión VI Región</t>
+          <t>Chancado y Transporte de Mineral de Caliza</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7238,20 +7238,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,40 +7276,40 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Minera de Caliza Cristo Rey</t>
+          <t>Gasoducto Gas Andes Extensión VI Región</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Minera Cristo Rey Ltda.</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>20/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
+          <t>Minera de Caliza Cristo Rey</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Minera Cristo Rey Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>9200</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>20/07/2000</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,12 +7372,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
+          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7391,11 +7391,11 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>480</v>
+        <v>9200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Minero La Perla</t>
+          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,15 +7435,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>08/07/1997</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,43 +7468,91 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>Proyecto Minero La Perla</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Knauf de Chile Limitada</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>08/07/1997</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>Proyecto Minero Almira</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>Fletcher Challenge Chile Industrial Ltda.</t>
         </is>
       </c>
-      <c r="F149" t="n">
+      <c r="F150" t="n">
         <v>100000</v>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>30/08/1996</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>San José de Maipo</t>
         </is>

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,16 +5222,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,16 +5222,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/08/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,16 +5222,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Paneles de Yeso y Ampliación Cantera Rubí</t>
+          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Catalán Herrera Hermanos y Compañía Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>98000</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/08/2022</t>
+          <t>25/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156632310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estudio Geo Científico Norte</t>
+          <t>Planta Paneles de Yeso y Ampliación Cantera Rubí</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>98000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02/08/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156632310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
+          <t>Estudio Geo Científico Norte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>98000</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>02/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>547</v>
+        <v>98000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Estudio Geologico de Recursos</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Industrial Romeral S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>547</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>29/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Estudio Geologico de Recursos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Exploracion Minera Escalones III</t>
+          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/04/2021</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Exploracion Minera Escalones III</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>07/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>30</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,40 +904,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Extracción de Yeso, Yacimiento Rubí</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14/10/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/08/2019</t>
+          <t>14/10/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
+          <t>Extracción de Yeso, Yacimiento Rubí</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>11000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>30/08/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
+          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/02/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Maipo</t>
+          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>Extracción de Áridos Río Maipo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>85000</v>
+        <v>23</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1648</v>
+        <v>85000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mejoramiento Parque Likandes</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inversiones Solcorfa RSE Limitada</t>
+          <t>Sociedad Industrial Romeral S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7000</v>
+        <v>1648</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Exploración Minera Escalones II</t>
+          <t>Mejoramiento Parque Likandes</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Inversiones Solcorfa RSE Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/09/2013</t>
+          <t>09/06/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación Exploración Minera Escalones II</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/09/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,40 +1624,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Central El Canelo San José .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Central El Canelo San José</t>
+          <t>Central El Canelo San José .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Central El Canelo San José</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1300</v>
+        <v>50000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>05/06/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8386</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>8386</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Minera Condor S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
+          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>Minera Condor S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>120</v>
+        <v>2200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Exploración Minera Los Piches</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Exploración Minera Los Piches</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Refugio Río Olivares del Sendero de Chile</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fundación Sendero de Chile</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Refugio Río Olivares del Sendero de Chile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Fundación Sendero de Chile</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/10/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>29/10/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
+          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1750</v>
+        <v>30</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Emilio Moreno Hozven</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>490</v>
+        <v>900</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Emilio Moreno Hozven</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>23/06/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8386</v>
+        <v>350</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>120</v>
+        <v>8386</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,10 +3304,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>RM</t>
@@ -3315,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>23/12/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3348,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3359,15 +3363,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3377,7 +3381,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3392,40 +3396,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>10/09/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,17 +3463,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3503,15 +3503,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3546,30 +3546,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1222</v>
+        <v>22</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3599,15 +3599,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>11/03/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,17 +3655,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hierro Ecológico (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3695,25 +3695,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cesar Chateau Moya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Hierro Ecológico (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3738,30 +3738,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Cesar Chateau Moya</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3791,25 +3791,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3839,25 +3839,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,25 +3887,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,15 +3935,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4026,16 +4026,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4044,12 +4044,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4079,25 +4079,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4135,17 +4135,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4170,30 +4170,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Exploración Minera Quempo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4218,20 +4218,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Exploración Minera Quempo (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4319,15 +4319,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Exploración Minera Escalones II (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4362,30 +4362,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Exploración Minera Escalones II (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4410,20 +4410,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4463,25 +4463,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4511,25 +4511,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,26 +4544,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ALTO MAIPO SPA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>700000</v>
+        <v>500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4573,7 +4577,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4588,14 +4592,10 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>RM</t>
@@ -4603,15 +4603,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>ALTO MAIPO SPA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>700000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>22/05/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4651,15 +4651,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>17380</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>25/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
+          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4699,15 +4699,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>17380</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>25/02/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4755,17 +4755,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4795,15 +4795,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>14/11/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4891,25 +4891,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4939,25 +4939,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4982,20 +4982,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5039,11 +5039,11 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>30/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,30 +5078,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5139,17 +5139,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5179,15 +5179,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5222,30 +5222,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>37000</v>
+        <v>300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SANTUARIO RIO COLORADO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,30 +5318,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>C-ELEVEN</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>9101</v>
+        <v>80</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alto Maipo</t>
+          <t>SANTUARIO RIO COLORADO (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5371,25 +5371,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>C-ELEVEN</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>600000</v>
+        <v>9101</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>07/06/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,40 +5404,40 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Alto Maipo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>600000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5467,25 +5467,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5515,15 +5515,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5558,16 +5558,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5606,30 +5606,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,17 +5667,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5715,17 +5715,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5755,15 +5755,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5803,25 +5803,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5846,30 +5846,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>31/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5894,30 +5894,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>31/10/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5947,15 +5947,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,17 +6003,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6038,20 +6038,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>165</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6086,30 +6086,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6134,20 +6134,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6182,30 +6182,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6235,15 +6235,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6283,11 +6283,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,11 +6331,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Exploración Cerro Blanco (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6374,20 +6374,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Empresa Minera de Mantos Blancos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Exploración Picos Bayos (e-seia)</t>
+          <t>Exploración Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Empresa Minera de Mantos Blancos S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Exploación Minera Escalones (e-seia)</t>
+          <t>Exploración Picos Bayos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6475,15 +6475,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Minera Aurex Chile Ltda.</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>26/07/2005</t>
+          <t>29/07/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Exploación Minera Escalones (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6523,15 +6523,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Minera Aurex Chile Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>26/07/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Exploración Minera Tortolitas (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Ojos del Salado</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6675,17 +6675,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>09/12/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Exploración Minera Tortolitas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía Contractual Minera Ojos del Salado</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/12/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,25 +6763,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>13/06/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
+          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2400</v>
+        <v>71</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>13/06/2003</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
+          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,15 +6859,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>71</v>
+        <v>2400</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04/01/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,17 +6915,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>19/12/2002</t>
+          <t>04/01/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Hogar de Menores La Esquina</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6955,25 +6955,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>19/12/2002</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,12 +6988,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mina Reserva</t>
+          <t>Hogar de Menores La Esquina</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7003,25 +7003,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Compañía Minera Lo Valdés Ltda.</t>
+          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mina Porfín</t>
+          <t>Mina Reserva</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7051,25 +7051,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>YESOTEC S.A.</t>
+          <t>Compañía Minera Lo Valdés Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Mina Porfín</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7094,30 +7094,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>YESOTEC S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1230</v>
+        <v>15000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,30 +7132,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,17 +7203,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,12 +7228,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chancado y Transporte de Mineral de Caliza</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7243,25 +7243,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Gasoducto Gas Andes Extensión VI Región</t>
+          <t>Chancado y Transporte de Mineral de Caliza</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7286,20 +7286,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,40 +7324,40 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Minera de Caliza Cristo Rey</t>
+          <t>Gasoducto Gas Andes Extensión VI Región</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Minera Cristo Rey Ltda.</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
+          <t>Minera de Caliza Cristo Rey</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,25 +7387,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Minera Cristo Rey Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>9200</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>20/07/2000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,12 +7420,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
+          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7439,11 +7439,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>480</v>
+        <v>9200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto Minero La Perla</t>
+          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,15 +7483,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>08/07/1997</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,43 +7516,91 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>Proyecto Minero La Perla</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Knauf de Chile Limitada</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>08/07/1997</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>Proyecto Minero Almira</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>Fletcher Challenge Chile Industrial Ltda.</t>
         </is>
       </c>
-      <c r="F150" t="n">
+      <c r="F151" t="n">
         <v>100000</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>30/08/1996</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>San José de Maipo</t>
         </is>

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5270,16 +5270,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6632,12 +6632,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inversiones Solcorfa RSE Limitada</t>
+          <t>Sociedad Likandes SpA</t>
         </is>
       </c>
       <c r="F21" t="n">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda.</t>
+          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>27/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159515509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Paneles de Yeso y Ampliación Cantera Rubí</t>
+          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Catalán Herrera Hermanos y Compañía Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>98000</v>
+        <v>30</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156632310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estudio Geo Científico Norte</t>
+          <t>Planta Paneles de Yeso y Ampliación Cantera Rubí</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>98000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>02/08/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156632310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
+          <t>Estudio Geo Científico Norte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>98000</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>02/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>547</v>
+        <v>98000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Estudio Geologico de Recursos</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Industrial Romeral S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>547</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>29/10/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Estudio Geologico de Recursos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Exploracion Minera Escalones III</t>
+          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/04/2021</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Exploracion Minera Escalones III</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>07/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>30</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,40 +952,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Extracción de Yeso, Yacimiento Rubí</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/10/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/08/2019</t>
+          <t>14/10/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
+          <t>Extracción de Yeso, Yacimiento Rubí</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>11000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>30/08/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
+          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/02/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Maipo</t>
+          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>Extracción de Áridos Río Maipo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>85000</v>
+        <v>23</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1648</v>
+        <v>85000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mejoramiento Parque Likandes</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Likandes SpA</t>
+          <t>Sociedad Industrial Romeral S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7000</v>
+        <v>1648</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Exploración Minera Escalones II</t>
+          <t>Mejoramiento Parque Likandes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Likandes SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/09/2013</t>
+          <t>09/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación Exploración Minera Escalones II</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/09/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,40 +1672,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Central El Canelo San José .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Central El Canelo San José</t>
+          <t>Central El Canelo San José .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Central El Canelo San José</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1300</v>
+        <v>50000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>05/06/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>95</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8386</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>800</v>
+        <v>8386</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Minera Condor S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
+          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>Minera Condor S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>120</v>
+        <v>2200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Exploración Minera Los Piches</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Exploración Minera Los Piches</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Refugio Río Olivares del Sendero de Chile</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fundación Sendero de Chile</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Refugio Río Olivares del Sendero de Chile</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Fundación Sendero de Chile</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/10/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>29/10/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
+          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1750</v>
+        <v>30</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Emilio Moreno Hozven</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>490</v>
+        <v>900</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Emilio Moreno Hozven</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>23/06/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8386</v>
+        <v>350</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>120</v>
+        <v>8386</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,10 +3352,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>RM</t>
@@ -3363,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>23/12/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3396,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3407,15 +3411,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3425,7 +3429,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3440,40 +3444,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>10/09/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,17 +3511,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3551,15 +3551,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3594,30 +3594,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1222</v>
+        <v>22</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3647,15 +3647,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>11/03/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hierro Ecológico (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3743,25 +3743,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cesar Chateau Moya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Hierro Ecológico (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3786,30 +3786,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Cesar Chateau Moya</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3839,25 +3839,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,25 +3887,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,25 +3935,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,15 +3983,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4074,16 +4074,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4127,25 +4127,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4183,17 +4183,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4218,30 +4218,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Exploración Minera Quempo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4266,20 +4266,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Exploración Minera Quempo (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4314,30 +4314,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4367,15 +4367,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Exploración Minera Escalones II (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4410,30 +4410,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Exploración Minera Escalones II (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4458,20 +4458,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4511,25 +4511,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4559,25 +4559,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,26 +4592,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ALTO MAIPO SPA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>700000</v>
+        <v>500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4621,7 +4625,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4636,14 +4640,10 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>RM</t>
@@ -4651,15 +4651,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>ALTO MAIPO SPA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>700000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>22/05/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4699,15 +4699,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17380</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>25/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
+          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4747,15 +4747,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>17380</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>25/02/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4803,17 +4803,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>14/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4843,15 +4843,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>14/11/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4939,25 +4939,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4987,25 +4987,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5030,20 +5030,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5087,11 +5087,11 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>30/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5126,30 +5126,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5187,17 +5187,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5227,15 +5227,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5275,25 +5275,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SANTUARIO RIO COLORADO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,30 +5366,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>C-ELEVEN</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>9101</v>
+        <v>80</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alto Maipo</t>
+          <t>SANTUARIO RIO COLORADO (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5419,25 +5419,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>C-ELEVEN</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>600000</v>
+        <v>9101</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>07/06/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,40 +5452,40 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Alto Maipo</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>600000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5515,25 +5515,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5563,15 +5563,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5606,16 +5606,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5654,30 +5654,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,17 +5715,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5763,17 +5763,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5803,15 +5803,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5851,25 +5851,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5894,30 +5894,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5942,30 +5942,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>31/10/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5995,15 +5995,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,17 +6051,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6086,20 +6086,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>165</v>
+        <v>500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6134,30 +6134,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6182,20 +6182,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6230,30 +6230,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6283,15 +6283,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6331,11 +6331,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6379,11 +6379,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Exploración Cerro Blanco (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6422,20 +6422,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Empresa Minera de Mantos Blancos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>29/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Exploración Picos Bayos (e-seia)</t>
+          <t>Exploración Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Empresa Minera de Mantos Blancos S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Exploación Minera Escalones (e-seia)</t>
+          <t>Exploración Picos Bayos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6523,15 +6523,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Minera Aurex Chile Ltda.</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>26/07/2005</t>
+          <t>29/07/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Exploación Minera Escalones (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6571,15 +6571,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Minera Aurex Chile Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>26/07/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,17 +6627,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Exploración Minera Tortolitas (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Ojos del Salado</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6723,17 +6723,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>09/12/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Exploración Minera Tortolitas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía Contractual Minera Ojos del Salado</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/12/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13/06/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
+          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2400</v>
+        <v>71</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>13/06/2003</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
+          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,15 +6907,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>71</v>
+        <v>2400</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/01/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,17 +6963,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>19/12/2002</t>
+          <t>04/01/2003</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Hogar de Menores La Esquina</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7003,25 +7003,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>19/12/2002</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mina Reserva</t>
+          <t>Hogar de Menores La Esquina</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7051,25 +7051,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Compañía Minera Lo Valdés Ltda.</t>
+          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mina Porfín</t>
+          <t>Mina Reserva</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7099,25 +7099,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>YESOTEC S.A.</t>
+          <t>Compañía Minera Lo Valdés Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Mina Porfín</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7142,30 +7142,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>YESOTEC S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1230</v>
+        <v>15000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,30 +7180,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,17 +7251,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chancado y Transporte de Mineral de Caliza</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Gasoducto Gas Andes Extensión VI Región</t>
+          <t>Chancado y Transporte de Mineral de Caliza</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7334,20 +7334,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,40 +7372,40 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Minera de Caliza Cristo Rey</t>
+          <t>Gasoducto Gas Andes Extensión VI Región</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Minera Cristo Rey Ltda.</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
+          <t>Minera de Caliza Cristo Rey</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Minera Cristo Rey Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>9200</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>20/07/2000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,12 +7468,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
+          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7487,11 +7487,11 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>480</v>
+        <v>9200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto Minero La Perla</t>
+          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,15 +7531,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>08/07/1997</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,43 +7564,91 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>Proyecto Minero La Perla</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Knauf de Chile Limitada</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>08/07/1997</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>Proyecto Minero Almira</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>Fletcher Challenge Chile Industrial Ltda.</t>
         </is>
       </c>
-      <c r="F151" t="n">
+      <c r="F152" t="n">
         <v>100000</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>30/08/1996</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>San José de Maipo</t>
         </is>

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/06/2023</t>
+          <t>04/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5318,16 +5318,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda</t>
+          <t>Captación y Conducción Alternativa en el Río Maipo para Incrementar la Seguridad de Abastecimiento de Agua Potable para la Población</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Catalán Herrera Hermanos y Compañía Limitada</t>
+          <t>Aguas Andinas S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>80000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/07/2023</t>
+          <t>20/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159515509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160543009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda.</t>
+          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>04/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159515509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Paneles de Yeso y Ampliación Cantera Rubí</t>
+          <t>Regularización de Actividades Banco Arenero Preexistente Sociedad Catalán Herrera Hermanos y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Catalán Herrera Hermanos y Compañía Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>98000</v>
+        <v>30</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/08/2022</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156632310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156817670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Estudio Geo Científico Norte</t>
+          <t>Planta Paneles de Yeso y Ampliación Cantera Rubí</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3000</v>
+        <v>98000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/08/2022</t>
+          <t>12/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156632310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
+          <t>Estudio Geo Científico Norte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>98000</v>
+        <v>3000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>02/08/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156493482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>PLANTA PANELES DE YESO Y AMPLIACIÓN CANTERA RUBÍ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>547</v>
+        <v>98000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29/10/2021</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156421131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estudio Geologico de Recursos</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Industrial Romeral S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>547</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/07/2021</t>
+          <t>29/10/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153819450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Estudio Geologico de Recursos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/05/2021</t>
+          <t>15/07/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152614524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Exploracion Minera Escalones III</t>
+          <t>Regularización de Actividades Banco Arenero Pre-existente Sociedad Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/04/2021</t>
+          <t>07/05/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151705218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
+          <t>Exploracion Minera Escalones III</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Juan Manuel Catalán Herrera</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>07/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151313758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Regularización de Actividades Banco Arenero Pre existente Catalán Herrera Hermanos y Cía Ltda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Juan Manuel Catalán Herrera</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>30</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148991179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,40 +1000,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Extracción de Yeso, Yacimiento Rubí</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Yesos Andinos SPA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/10/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/08/2019</t>
+          <t>14/10/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144374472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
+          <t>Extracción de Yeso, Yacimiento Rubí</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Yesos Andinos SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>11000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/07/2018</t>
+          <t>30/08/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144054175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
+          <t>EXTRACCIÓN DE ÁRIDOS RIO MAIPO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/02/2018</t>
+          <t>20/07/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141007711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Knauf de Chile Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/01/2018</t>
+          <t>27/02/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138526656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Maipo</t>
+          <t>Modificación de RCA N°067/1998 Proyecto Minero La Perla</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/12/2017</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138105540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>Extracción de Áridos Río Maipo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>85000</v>
+        <v>23</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>20/12/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137977503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto Minero Romeral</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Industrial Romeral S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1648</v>
+        <v>85000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/07/2016</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mejoramiento Parque Likandes</t>
+          <t>Proyecto Minero Romeral</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Likandes SpA</t>
+          <t>Sociedad Industrial Romeral S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7000</v>
+        <v>1648</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/06/2016</t>
+          <t>07/07/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131554672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Exploración Minera Escalones II</t>
+          <t>Mejoramiento Parque Likandes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Sociedad Likandes SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/09/2013</t>
+          <t>09/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131439824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación Exploración Minera Escalones II</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>23/09/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128594004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7496275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,40 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Central El Canelo San José .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>29/06/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Central El Canelo San José</t>
+          <t>Central El Canelo San José .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>29/06/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7069779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA LORENA</t>
+          <t>Central El Canelo San José</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1300</v>
+        <v>50000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6951674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>PROSPECCION MINERA LORENA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>MINERA VERDE RESOURCES CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>05/06/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6968091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>95</v>
+        <v>800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>8386</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Mejoramiento Ruta G-25 sector puente el Yeso - El Volcán" Región Metropolitana</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>8386</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6352319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Minera Condor S.A.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
+          <t>Proyecto de Exploración Minera Cóndor EXP N° 164/2011</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>Minera Condor S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>120</v>
+        <v>2200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6294710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PROYECTO DE ECOTURISMO EL MORADO PARA EL MUNDO EXP N°153/2011</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6130742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Exploración Minera Los Piches</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Exploración Minera Los Piches</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5997637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Refugio Río Olivares del Sendero de Chile</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fundación Sendero de Chile</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>80</v>
+        <v>12000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Refugio Río Olivares del Sendero de Chile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
+          <t>Fundación Sendero de Chile</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/10/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5068829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
+          <t>Exploración pertenencias mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>29/10/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
+          <t>Exploración Pertenencias Mineras Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Sociedad Legal Minera Los Piches 1 al 6 y 7 al 10</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4978597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Plan de Restauración de Suelos Fundo El Toyo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1750</v>
+        <v>30</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/10/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4979377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Emilio Moreno Hozven</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>490</v>
+        <v>900</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Impacto Ambiental Fase Exploración Pertenencias Mineras Los Piches 1-6 y 7-10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Emilio Moreno Hozven</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>23/06/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8386</v>
+        <v>350</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+          <t>MEJORAMIENTO RUTA G-25 SECTOR PUENTE EL YESO EL VOLCÁN (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alejandro Gallardo Espinoza</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>120</v>
+        <v>8386</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4266478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,10 +3400,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>Proyecto de Ecoturismo MONUMENTO NATURAL EL MORADO PARA EL MUNDO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>RM</t>
@@ -3411,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Alejandro Gallardo Espinoza</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>12000</v>
+        <v>120</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>23/12/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4269887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3444,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+          <t>Interconexión Embalse El Yeso Acueducto Laguna Negra</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3455,15 +3459,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3473,7 +3477,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3488,40 +3492,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Líneas de Transmisión Eléctrica S/E Maitenes-S/E Alfalfal y Central Alfalfal II-S/E Alfalfal</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>13000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>10/09/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4038829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,17 +3559,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3599,15 +3599,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3642,30 +3642,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1222</v>
+        <v>22</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Reposición/Construcción Puente El Cristo Comuna de San José de Maipo, Provincia Cordillera - Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3695,15 +3695,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>11/03/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3617435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,17 +3751,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hierro Ecológico (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3791,25 +3791,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cesar Chateau Moya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Hierro Ecológico (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3834,30 +3834,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Cesar Chateau Moya</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3887,25 +3887,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3935,25 +3935,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3983,25 +3983,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4031,15 +4031,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4122,16 +4122,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4140,12 +4140,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4175,25 +4175,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4231,17 +4231,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Exploración Minera Quempo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4314,20 +4314,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Exploración Minera Quempo (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4362,30 +4362,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>22/07/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3055187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4415,15 +4415,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Exploración Minera Escalones II (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4458,30 +4458,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Trimetals Mining Chile SCM</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Exploración Minera Escalones II (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4506,20 +4506,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Trimetals Mining Chile SCM</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4559,25 +4559,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4607,25 +4607,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,26 +4640,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ALTO MAIPO SPA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>700000</v>
+        <v>500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4669,7 +4673,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4684,14 +4688,10 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>PROYECTO HIDROELÉCTRICO ALTO MAIPO Exp. N°105</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
           <t>RM</t>
@@ -4699,15 +4699,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>ALTO MAIPO SPA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>700000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>22/05/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2933044&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4747,15 +4747,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ENERGIA COYANCO S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>17380</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>25/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
+          <t>CENTRAL HIDROELÉCTRICA GUAYACÁN (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4795,15 +4795,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>ENERGIA COYANCO S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>17380</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>25/02/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4851,17 +4851,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>14/11/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>REGULARIZACION DE ACTIVIDADES BANCO ARENERO ROMERAL, PROYECTO EXTRACCION Y EXPLOTACION DE ARENAS DE RODADOS RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4891,15 +4891,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>14/11/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2467626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4987,25 +4987,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5035,25 +5035,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5078,20 +5078,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>30/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5135,11 +5135,11 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/08/2007</t>
+          <t>30/08/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Regularización de Actividades Banco Arenero Romeral Proyecto de Extracción de Arenas de Rodados Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5174,30 +5174,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>16/08/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5235,17 +5235,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5275,15 +5275,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5323,25 +5323,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SANTUARIO RIO COLORADO (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5419,25 +5419,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>C-ELEVEN</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>9101</v>
+        <v>37000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/06/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5452,12 +5452,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Alto Maipo</t>
+          <t>SANTUARIO RIO COLORADO (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5467,25 +5467,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>C-ELEVEN</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>600000</v>
+        <v>9101</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>07/06/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2185618&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5500,40 +5500,40 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Alto Maipo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>600000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2227972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5563,25 +5563,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5611,15 +5611,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5654,16 +5654,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5702,30 +5702,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,17 +5763,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5811,17 +5811,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5851,15 +5851,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5899,25 +5899,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5942,30 +5942,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>31/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Extracción y Explotación de Arenas de Rodados Rio Maipo Proyecto Extracción y Explotación de Arenas de Rod (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5990,30 +5990,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SOCIEDAD CONSTRUCTORA Y MINERA SOCOMIN LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>31/10/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1580789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6043,15 +6043,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,17 +6099,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6134,20 +6134,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Miguel Rodriguez Astorga</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>165</v>
+        <v>500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Extracción y Explotación de Arenas de Rodados del Rio Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6182,30 +6182,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Miguel Rodriguez Astorga</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6230,20 +6230,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6278,30 +6278,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6331,15 +6331,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6379,11 +6379,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6427,11 +6427,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Exploración Cerro Blanco (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6470,20 +6470,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Empresa Minera de Mantos Blancos S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Exploración Picos Bayos (e-seia)</t>
+          <t>Exploración Cerro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Mantos Copper S.A</t>
+          <t>Empresa Minera de Mantos Blancos S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Exploación Minera Escalones (e-seia)</t>
+          <t>Exploración Picos Bayos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6571,15 +6571,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Minera Aurex Chile Ltda.</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>26/07/2005</t>
+          <t>29/07/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=954871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Exploación Minera Escalones (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,15 +6619,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Minera Aurex Chile Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>26/07/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=938816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,17 +6675,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Exploración Minera Tortolitas (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Ojos del Salado</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>09/12/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Exploración Minera Tortolitas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Compañía Contractual Minera Ojos del Salado</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/12/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6859,25 +6859,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>13/06/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
+          <t>Planta de Compostación de Residuos Orgánicos en General: El Pedregal Chico (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6907,25 +6907,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Minera Rio Colorado S.A.</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2400</v>
+        <v>71</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>13/06/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=96121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
+          <t>Planta de Trituración de Caliza, La Perla 2 (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6955,15 +6955,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Minera Rio Colorado S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>71</v>
+        <v>2400</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>04/01/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,17 +7011,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>19/12/2002</t>
+          <t>04/01/2003</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=41623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Hogar de Menores La Esquina</t>
+          <t>Planta de Compostación de Residuos Vegetales de Feria : El Toyo (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7051,25 +7051,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>14/10/2002</t>
+          <t>19/12/2002</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=39717&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7084,12 +7084,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mina Reserva</t>
+          <t>Hogar de Menores La Esquina</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7099,25 +7099,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Compañía Minera Lo Valdés Ltda.</t>
+          <t>ONG para el desarrollo integral del ser humano La Esquina</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>14/10/2002</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mina Porfín</t>
+          <t>Mina Reserva</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7147,25 +7147,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>YESOTEC S.A.</t>
+          <t>Compañía Minera Lo Valdés Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>16/07/2001</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Mina Porfín</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7190,30 +7190,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>YESOTEC S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1230</v>
+        <v>15000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>16/07/2001</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,30 +7228,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,17 +7299,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,12 +7324,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chancado y Transporte de Mineral de Caliza</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>30/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Gasoducto Gas Andes Extensión VI Región</t>
+          <t>Chancado y Transporte de Mineral de Caliza</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7382,20 +7382,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Sociedad Legal Minera Javiera de San José de Maipo</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>30/01/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,40 +7420,40 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Minera de Caliza Cristo Rey</t>
+          <t>Gasoducto Gas Andes Extensión VI Región</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Minera Cristo Rey Ltda.</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
+          <t>Minera de Caliza Cristo Rey</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,25 +7483,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Sociedad Minera Cristo Rey Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>9200</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/07/1999</t>
+          <t>20/07/2000</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
+          <t>Mejoramiento del Sistema Atendido por la Alimentadora El Canelo de EMOS S.A.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7535,11 +7535,11 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>480</v>
+        <v>9200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>13/07/1999</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Proyecto Minero La Perla</t>
+          <t>Planta de Tratamiento de Aguas Servidas San José de Maipo</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Knauf de Chile Limitada</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>08/07/1997</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,43 +7612,91 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>Proyecto Minero La Perla</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Knauf de Chile Limitada</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>08/07/1997</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>Proyecto Minero Almira</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>Fletcher Challenge Chile Industrial Ltda.</t>
         </is>
       </c>
-      <c r="F152" t="n">
+      <c r="F153" t="n">
         <v>100000</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>30/08/1996</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>San José de Maipo</t>
         </is>

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5414,16 +5414,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5432,12 +5432,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6776,12 +6776,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>DANILO CAMPOS INOSTROZA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>extraccion de aridos camino el volcan, San Jose de maipo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DANILO CAMPOS INOSTROZA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6439433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5366,16 +5366,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Pedro Augusto Guillon Cuevas</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>37000</v>
+        <v>80</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Central Hidroléctrica El Toyo 1 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5414,16 +5414,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Pedro Augusto Guillon Cuevas</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>80</v>
+        <v>37000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5432,12 +5432,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6776,12 +6776,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">

--- a/data/San José de Maipo.xlsx
+++ b/data/San José de Maipo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
